--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.11331099999999</v>
+        <v>63.64628466666667</v>
       </c>
       <c r="H2">
-        <v>135.339933</v>
+        <v>190.938854</v>
       </c>
       <c r="I2">
-        <v>0.3130631765642908</v>
+        <v>0.4497938828479854</v>
       </c>
       <c r="J2">
-        <v>0.3130631765642909</v>
+        <v>0.4497938828479855</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>4276.73516091666</v>
+        <v>11256.16986962837</v>
       </c>
       <c r="R2">
-        <v>38490.61644824994</v>
+        <v>101305.5288266554</v>
       </c>
       <c r="S2">
-        <v>0.05265608586488885</v>
+        <v>0.120081954044185</v>
       </c>
       <c r="T2">
-        <v>0.05265608586488887</v>
+        <v>0.1200819540441851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>45.11331099999999</v>
+        <v>63.64628466666667</v>
       </c>
       <c r="H3">
-        <v>135.339933</v>
+        <v>190.938854</v>
       </c>
       <c r="I3">
-        <v>0.3130631765642908</v>
+        <v>0.4497938828479854</v>
       </c>
       <c r="J3">
-        <v>0.3130631765642909</v>
+        <v>0.4497938828479855</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>6570.364088445121</v>
+        <v>9269.531627523906</v>
       </c>
       <c r="R3">
-        <v>59133.27679600609</v>
+        <v>83425.78464771515</v>
       </c>
       <c r="S3">
-        <v>0.08089573999494384</v>
+        <v>0.09888829715610845</v>
       </c>
       <c r="T3">
-        <v>0.08089573999494389</v>
+        <v>0.09888829715610847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.11331099999999</v>
+        <v>63.64628466666667</v>
       </c>
       <c r="H4">
-        <v>135.339933</v>
+        <v>190.938854</v>
       </c>
       <c r="I4">
-        <v>0.3130631765642908</v>
+        <v>0.4497938828479854</v>
       </c>
       <c r="J4">
-        <v>0.3130631765642909</v>
+        <v>0.4497938828479855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>3283.16499801221</v>
+        <v>5347.886282362262</v>
       </c>
       <c r="R4">
-        <v>29548.48498210989</v>
+        <v>48130.97654126036</v>
       </c>
       <c r="S4">
-        <v>0.04042303568941931</v>
+        <v>0.05705178957230454</v>
       </c>
       <c r="T4">
-        <v>0.04042303568941932</v>
+        <v>0.05705178957230456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.11331099999999</v>
+        <v>63.64628466666667</v>
       </c>
       <c r="H5">
-        <v>135.339933</v>
+        <v>190.938854</v>
       </c>
       <c r="I5">
-        <v>0.3130631765642908</v>
+        <v>0.4497938828479854</v>
       </c>
       <c r="J5">
-        <v>0.3130631765642909</v>
+        <v>0.4497938828479855</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>5225.740605720641</v>
+        <v>5405.40103247214</v>
       </c>
       <c r="R5">
-        <v>47031.66545148577</v>
+        <v>48648.60929224926</v>
       </c>
       <c r="S5">
-        <v>0.06434044561774642</v>
+        <v>0.057665362720147</v>
       </c>
       <c r="T5">
-        <v>0.06434044561774645</v>
+        <v>0.05766536272014701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.11331099999999</v>
+        <v>63.64628466666667</v>
       </c>
       <c r="H6">
-        <v>135.339933</v>
+        <v>190.938854</v>
       </c>
       <c r="I6">
-        <v>0.3130631765642908</v>
+        <v>0.4497938828479854</v>
       </c>
       <c r="J6">
-        <v>0.3130631765642909</v>
+        <v>0.4497938828479855</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>2625.003084239545</v>
+        <v>4071.517982706737</v>
       </c>
       <c r="R6">
-        <v>23625.02775815591</v>
+        <v>36643.66184436063</v>
       </c>
       <c r="S6">
-        <v>0.03231960423045917</v>
+        <v>0.04343536397835163</v>
       </c>
       <c r="T6">
-        <v>0.03231960423045919</v>
+        <v>0.04343536397835165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.11331099999999</v>
+        <v>63.64628466666667</v>
       </c>
       <c r="H7">
-        <v>135.339933</v>
+        <v>190.938854</v>
       </c>
       <c r="I7">
-        <v>0.3130631765642908</v>
+        <v>0.4497938828479854</v>
       </c>
       <c r="J7">
-        <v>0.3130631765642909</v>
+        <v>0.4497938828479855</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>3446.030035754803</v>
+        <v>6812.001235394902</v>
       </c>
       <c r="R7">
-        <v>31014.27032179323</v>
+        <v>61308.01111855412</v>
       </c>
       <c r="S7">
-        <v>0.04242826516683315</v>
+        <v>0.07267111537688875</v>
       </c>
       <c r="T7">
-        <v>0.04242826516683317</v>
+        <v>0.07267111537688876</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>186.453754</v>
       </c>
       <c r="I8">
-        <v>0.431297719864963</v>
+        <v>0.4392283509947279</v>
       </c>
       <c r="J8">
-        <v>0.4312977198649631</v>
+        <v>0.439228350994728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>5891.929365863552</v>
+        <v>10991.76560394513</v>
       </c>
       <c r="R8">
-        <v>53027.36429277196</v>
+        <v>98925.89043550618</v>
       </c>
       <c r="S8">
-        <v>0.07254270534074275</v>
+        <v>0.1172612627034715</v>
       </c>
       <c r="T8">
-        <v>0.07254270534074279</v>
+        <v>0.1172612627034715</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>186.453754</v>
       </c>
       <c r="I9">
-        <v>0.431297719864963</v>
+        <v>0.4392283509947279</v>
       </c>
       <c r="J9">
-        <v>0.4312977198649631</v>
+        <v>0.439228350994728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>9051.79293562515</v>
@@ -1013,10 +1013,10 @@
         <v>81466.13642062637</v>
       </c>
       <c r="S9">
-        <v>0.1114476272473493</v>
+        <v>0.09656543885732104</v>
       </c>
       <c r="T9">
-        <v>0.1114476272473493</v>
+        <v>0.09656543885732106</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>186.453754</v>
       </c>
       <c r="I10">
-        <v>0.431297719864963</v>
+        <v>0.4392283509947279</v>
       </c>
       <c r="J10">
-        <v>0.4312977198649631</v>
+        <v>0.439228350994728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>4523.117643931295</v>
+        <v>5222.265937091819</v>
       </c>
       <c r="R10">
-        <v>40708.05879538166</v>
+        <v>47000.39343382637</v>
       </c>
       <c r="S10">
-        <v>0.05568960014460929</v>
+        <v>0.05571165907476452</v>
       </c>
       <c r="T10">
-        <v>0.0556896001446093</v>
+        <v>0.05571165907476454</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>186.453754</v>
       </c>
       <c r="I11">
-        <v>0.431297719864963</v>
+        <v>0.4392283509947279</v>
       </c>
       <c r="J11">
-        <v>0.4312977198649631</v>
+        <v>0.439228350994728</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>7199.345616395774</v>
+        <v>5278.429681891286</v>
       </c>
       <c r="R11">
-        <v>64794.11054756196</v>
+        <v>47505.86713702157</v>
       </c>
       <c r="S11">
-        <v>0.08863989624896351</v>
+        <v>0.05631081956186382</v>
       </c>
       <c r="T11">
-        <v>0.08863989624896355</v>
+        <v>0.05631081956186384</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>186.453754</v>
       </c>
       <c r="I12">
-        <v>0.431297719864963</v>
+        <v>0.4392283509947279</v>
       </c>
       <c r="J12">
-        <v>0.4312977198649631</v>
+        <v>0.439228350994728</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>3616.387776090015</v>
+        <v>3975.879169957615</v>
       </c>
       <c r="R12">
-        <v>32547.48998481013</v>
+        <v>35782.91252961854</v>
       </c>
       <c r="S12">
-        <v>0.04452574641486926</v>
+        <v>0.04241507948989805</v>
       </c>
       <c r="T12">
-        <v>0.04452574641486928</v>
+        <v>0.04241507948989806</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>186.453754</v>
       </c>
       <c r="I13">
-        <v>0.431297719864963</v>
+        <v>0.4392283509947279</v>
       </c>
       <c r="J13">
-        <v>0.4312977198649631</v>
+        <v>0.439228350994728</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>4747.491906643972</v>
+        <v>6651.989241498315</v>
       </c>
       <c r="R13">
-        <v>42727.42715979576</v>
+        <v>59867.90317348484</v>
       </c>
       <c r="S13">
-        <v>0.05845214446842884</v>
+        <v>0.07096409130740899</v>
       </c>
       <c r="T13">
-        <v>0.05845214446842887</v>
+        <v>0.07096409130740901</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04294166666666666</v>
+        <v>0.01570333333333333</v>
       </c>
       <c r="H14">
-        <v>0.128825</v>
+        <v>0.04711</v>
       </c>
       <c r="I14">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="J14">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>4.070863601691666</v>
+        <v>2.777214545124445</v>
       </c>
       <c r="R14">
-        <v>36.63777241522499</v>
+        <v>24.99493090612</v>
       </c>
       <c r="S14">
-        <v>5.012135081775389E-05</v>
+        <v>2.96276045263242E-05</v>
       </c>
       <c r="T14">
-        <v>5.012135081775391E-05</v>
+        <v>2.962760452632421E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04294166666666666</v>
+        <v>0.01570333333333333</v>
       </c>
       <c r="H15">
-        <v>0.128825</v>
+        <v>0.04711</v>
       </c>
       <c r="I15">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="J15">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>6.25408284851111</v>
+        <v>2.287054865075555</v>
       </c>
       <c r="R15">
-        <v>56.2867456366</v>
+        <v>20.58349378568</v>
       </c>
       <c r="S15">
-        <v>7.700161714169493E-05</v>
+        <v>2.439853168399277E-05</v>
       </c>
       <c r="T15">
-        <v>7.700161714169496E-05</v>
+        <v>2.439853168399277E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04294166666666666</v>
+        <v>0.01570333333333333</v>
       </c>
       <c r="H16">
-        <v>0.128825</v>
+        <v>0.04711</v>
       </c>
       <c r="I16">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="J16">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>3.125121473711111</v>
+        <v>1.319474363044445</v>
       </c>
       <c r="R16">
-        <v>28.1260932634</v>
+        <v>11.8752692674</v>
       </c>
       <c r="S16">
-        <v>3.847716972557865E-05</v>
+        <v>1.407628542041667E-05</v>
       </c>
       <c r="T16">
-        <v>3.847716972557866E-05</v>
+        <v>1.407628542041667E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04294166666666666</v>
+        <v>0.01570333333333333</v>
       </c>
       <c r="H17">
-        <v>0.128825</v>
+        <v>0.04711</v>
       </c>
       <c r="I17">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="J17">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>4.97418624798611</v>
+        <v>1.333664873885556</v>
       </c>
       <c r="R17">
-        <v>44.767676231875</v>
+        <v>12.00298386497</v>
       </c>
       <c r="S17">
-        <v>6.124325410081431E-05</v>
+        <v>1.422767121953149E-05</v>
       </c>
       <c r="T17">
-        <v>6.124325410081433E-05</v>
+        <v>1.422767121953149E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.04294166666666666</v>
+        <v>0.01570333333333333</v>
       </c>
       <c r="H18">
-        <v>0.128825</v>
+        <v>0.04711</v>
       </c>
       <c r="I18">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="J18">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>2.498641862983333</v>
+        <v>1.004558308312222</v>
       </c>
       <c r="R18">
-        <v>22.48777676685</v>
+        <v>9.041024774809999</v>
       </c>
       <c r="S18">
-        <v>3.076381761611263E-05</v>
+        <v>1.07167292258921E-05</v>
       </c>
       <c r="T18">
-        <v>3.076381761611264E-05</v>
+        <v>1.071672922589211E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.04294166666666666</v>
+        <v>0.01570333333333333</v>
       </c>
       <c r="H19">
-        <v>0.128825</v>
+        <v>0.04711</v>
       </c>
       <c r="I19">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="J19">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>3.280146587305556</v>
+        <v>1.680712811858889</v>
       </c>
       <c r="R19">
-        <v>29.52131928575</v>
+        <v>15.12641530673</v>
       </c>
       <c r="S19">
-        <v>4.038587236567704E-05</v>
+        <v>1.793001358123386E-05</v>
       </c>
       <c r="T19">
-        <v>4.038587236567705E-05</v>
+        <v>1.793001358123386E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.42067833333333</v>
+        <v>15.408436</v>
       </c>
       <c r="H20">
-        <v>109.262035</v>
+        <v>46.225308</v>
       </c>
       <c r="I20">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="J20">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>3452.674879318928</v>
+        <v>2725.060448534437</v>
       </c>
       <c r="R20">
-        <v>31074.07391387035</v>
+        <v>24525.54403680993</v>
       </c>
       <c r="S20">
-        <v>0.04251007791419915</v>
+        <v>0.0290712193702299</v>
       </c>
       <c r="T20">
-        <v>0.04251007791419916</v>
+        <v>0.0290712193702299</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.42067833333333</v>
+        <v>15.408436</v>
       </c>
       <c r="H21">
-        <v>109.262035</v>
+        <v>46.225308</v>
       </c>
       <c r="I21">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="J21">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>5304.357221711009</v>
+        <v>2244.105615602122</v>
       </c>
       <c r="R21">
-        <v>47739.21499539907</v>
+        <v>20196.9505404191</v>
       </c>
       <c r="S21">
-        <v>0.06530839035274576</v>
+        <v>0.02394034476417585</v>
       </c>
       <c r="T21">
-        <v>0.06530839035274577</v>
+        <v>0.02394034476417585</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>36.42067833333333</v>
+        <v>15.408436</v>
       </c>
       <c r="H22">
-        <v>109.262035</v>
+        <v>46.225308</v>
       </c>
       <c r="I22">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="J22">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>2650.550218046769</v>
+        <v>1294.695581189413</v>
       </c>
       <c r="R22">
-        <v>23854.95196242092</v>
+        <v>11652.26023070472</v>
       </c>
       <c r="S22">
-        <v>0.03263414605284003</v>
+        <v>0.01381194287953025</v>
       </c>
       <c r="T22">
-        <v>0.03263414605284003</v>
+        <v>0.01381194287953025</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>36.42067833333333</v>
+        <v>15.408436</v>
       </c>
       <c r="H23">
-        <v>109.262035</v>
+        <v>46.225308</v>
       </c>
       <c r="I23">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="J23">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>4218.821749846514</v>
+        <v>1308.619604418191</v>
       </c>
       <c r="R23">
-        <v>37969.39574861863</v>
+        <v>11777.57643976372</v>
       </c>
       <c r="S23">
-        <v>0.0519430434548967</v>
+        <v>0.01396048576195242</v>
       </c>
       <c r="T23">
-        <v>0.05194304345489671</v>
+        <v>0.01396048576195243</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>36.42067833333333</v>
+        <v>15.408436</v>
       </c>
       <c r="H24">
-        <v>109.262035</v>
+        <v>46.225308</v>
       </c>
       <c r="I24">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="J24">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>2119.205858224337</v>
+        <v>985.6934240223187</v>
       </c>
       <c r="R24">
-        <v>19072.85272401903</v>
+        <v>8871.240816200867</v>
       </c>
       <c r="S24">
-        <v>0.02609211967479384</v>
+        <v>0.01051547673995891</v>
       </c>
       <c r="T24">
-        <v>0.02609211967479384</v>
+        <v>0.01051547673995891</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>36.42067833333333</v>
+        <v>15.408436</v>
       </c>
       <c r="H25">
-        <v>109.262035</v>
+        <v>46.225308</v>
       </c>
       <c r="I25">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="J25">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>2782.033698640095</v>
+        <v>1649.150231112783</v>
       </c>
       <c r="R25">
-        <v>25038.30328776085</v>
+        <v>14842.35208001505</v>
       </c>
       <c r="S25">
-        <v>0.03425299902910257</v>
+        <v>0.01759330079042068</v>
       </c>
       <c r="T25">
-        <v>0.03425299902910257</v>
+        <v>0.01759330079042068</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.2238356666666667</v>
+        <v>0.2187516666666667</v>
       </c>
       <c r="H26">
-        <v>0.6715070000000001</v>
+        <v>0.656255</v>
       </c>
       <c r="I26">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="J26">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>21.21958784848567</v>
+        <v>38.68734730016222</v>
       </c>
       <c r="R26">
-        <v>190.976290636371</v>
+        <v>348.18612570146</v>
       </c>
       <c r="S26">
-        <v>0.0002612601430124392</v>
+        <v>0.0004127205181155359</v>
       </c>
       <c r="T26">
-        <v>0.0002612601430124392</v>
+        <v>0.0004127205181155359</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.2238356666666667</v>
+        <v>0.2187516666666667</v>
       </c>
       <c r="H27">
-        <v>0.6715070000000001</v>
+        <v>0.656255</v>
       </c>
       <c r="I27">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="J27">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>32.59973150673511</v>
+        <v>31.85929081893778</v>
       </c>
       <c r="R27">
-        <v>293.397583560616</v>
+        <v>286.73361737044</v>
       </c>
       <c r="S27">
-        <v>0.0004013749266211383</v>
+        <v>0.0003398781237588341</v>
       </c>
       <c r="T27">
-        <v>0.0004013749266211385</v>
+        <v>0.0003398781237588342</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.2238356666666667</v>
+        <v>0.2187516666666667</v>
       </c>
       <c r="H28">
-        <v>0.6715070000000001</v>
+        <v>0.656255</v>
       </c>
       <c r="I28">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="J28">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>16.28985791148711</v>
+        <v>18.38063358352223</v>
       </c>
       <c r="R28">
-        <v>146.608721203384</v>
+        <v>165.4257022517</v>
       </c>
       <c r="S28">
-        <v>0.0002005642446024774</v>
+        <v>0.0001960864506171841</v>
       </c>
       <c r="T28">
-        <v>0.0002005642446024774</v>
+        <v>0.0001960864506171841</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.2238356666666667</v>
+        <v>0.2187516666666667</v>
       </c>
       <c r="H29">
-        <v>0.6715070000000001</v>
+        <v>0.656255</v>
       </c>
       <c r="I29">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="J29">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>25.92820403513611</v>
+        <v>18.57831122504278</v>
       </c>
       <c r="R29">
-        <v>233.353836316225</v>
+        <v>167.204801025385</v>
       </c>
       <c r="S29">
-        <v>0.0003192336412301612</v>
+        <v>0.0001981952956097142</v>
       </c>
       <c r="T29">
-        <v>0.0003192336412301613</v>
+        <v>0.0001981952956097143</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.2238356666666667</v>
+        <v>0.2187516666666667</v>
       </c>
       <c r="H30">
-        <v>0.6715070000000001</v>
+        <v>0.656255</v>
       </c>
       <c r="I30">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="J30">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>13.02430041906733</v>
+        <v>13.99376804545611</v>
       </c>
       <c r="R30">
-        <v>117.218703771606</v>
+        <v>125.943912409105</v>
       </c>
       <c r="S30">
-        <v>0.0001603579963201471</v>
+        <v>0.0001492869271521508</v>
       </c>
       <c r="T30">
-        <v>0.0001603579963201471</v>
+        <v>0.0001492869271521508</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.2238356666666667</v>
+        <v>0.2187516666666667</v>
       </c>
       <c r="H31">
-        <v>0.6715070000000001</v>
+        <v>0.656255</v>
       </c>
       <c r="I31">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="J31">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>17.09793436368556</v>
+        <v>23.41278255882944</v>
       </c>
       <c r="R31">
-        <v>153.88140927317</v>
+        <v>210.715043029465</v>
       </c>
       <c r="S31">
-        <v>0.0002105134561976223</v>
+        <v>0.0002497699227924565</v>
       </c>
       <c r="T31">
-        <v>0.0002105134561976224</v>
+        <v>0.0002497699227924566</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.15088</v>
+        <v>0.060574</v>
       </c>
       <c r="H32">
-        <v>0.45264</v>
+        <v>0.181722</v>
       </c>
       <c r="I32">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154834</v>
       </c>
       <c r="J32">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154835</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>14.30340151888</v>
+        <v>10.71282066586933</v>
       </c>
       <c r="R32">
-        <v>128.73061366992</v>
+        <v>96.415385992824</v>
       </c>
       <c r="S32">
-        <v>0.0001761065649846546</v>
+        <v>0.0001142854500049392</v>
       </c>
       <c r="T32">
-        <v>0.0001761065649846546</v>
+        <v>0.0001142854500049393</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.15088</v>
+        <v>0.060574</v>
       </c>
       <c r="H33">
-        <v>0.45264</v>
+        <v>0.181722</v>
       </c>
       <c r="I33">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154834</v>
       </c>
       <c r="J33">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154835</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>21.97436879914667</v>
+        <v>8.822079902170666</v>
       </c>
       <c r="R33">
-        <v>197.76931919232</v>
+        <v>79.398719119536</v>
       </c>
       <c r="S33">
-        <v>0.0002705531688959192</v>
+        <v>9.411483707659803E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002705531688959193</v>
+        <v>9.411483707659805E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.15088</v>
+        <v>0.060574</v>
       </c>
       <c r="H34">
-        <v>0.45264</v>
+        <v>0.181722</v>
       </c>
       <c r="I34">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154834</v>
       </c>
       <c r="J34">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154835</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>10.98043845418667</v>
+        <v>5.089737215053333</v>
       </c>
       <c r="R34">
-        <v>98.82394608768001</v>
+        <v>45.80763493548</v>
       </c>
       <c r="S34">
-        <v>0.0001351935269131451</v>
+        <v>5.429782931795708E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001351935269131452</v>
+        <v>5.429782931795709E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.15088</v>
+        <v>0.060574</v>
       </c>
       <c r="H35">
-        <v>0.45264</v>
+        <v>0.181722</v>
       </c>
       <c r="I35">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154834</v>
       </c>
       <c r="J35">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154835</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>17.47731933466667</v>
+        <v>5.144475657232667</v>
       </c>
       <c r="R35">
-        <v>157.295874012</v>
+        <v>46.30028091509401</v>
       </c>
       <c r="S35">
-        <v>0.0002151845258000589</v>
+        <v>5.488178453312888E-05</v>
       </c>
       <c r="T35">
-        <v>0.000215184525800059</v>
+        <v>5.488178453312888E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.15088</v>
+        <v>0.060574</v>
       </c>
       <c r="H36">
-        <v>0.45264</v>
+        <v>0.181722</v>
       </c>
       <c r="I36">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154834</v>
       </c>
       <c r="J36">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154835</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>8.77923735968</v>
+        <v>3.874980787584666</v>
       </c>
       <c r="R36">
-        <v>79.01313623712001</v>
+        <v>34.874827088262</v>
       </c>
       <c r="S36">
-        <v>0.0001080918642014921</v>
+        <v>4.133868538288187E-05</v>
       </c>
       <c r="T36">
-        <v>0.0001080918642014922</v>
+        <v>4.133868538288188E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.15088</v>
+        <v>0.060574</v>
       </c>
       <c r="H37">
-        <v>0.45264</v>
+        <v>0.181722</v>
       </c>
       <c r="I37">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154834</v>
       </c>
       <c r="J37">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154835</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>11.52513527093334</v>
+        <v>6.483177533360666</v>
       </c>
       <c r="R37">
-        <v>103.7262174384</v>
+        <v>58.348597800246</v>
       </c>
       <c r="S37">
-        <v>0.000141899951621192</v>
+        <v>6.916319099997834E-05</v>
       </c>
       <c r="T37">
-        <v>0.000141899951621192</v>
+        <v>6.916319099997834E-05</v>
       </c>
     </row>
   </sheetData>
